--- a/data/trans_media/Q31A-Edad-trans_media.xlsx
+++ b/data/trans_media/Q31A-Edad-trans_media.xlsx
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 16,14</t>
+          <t>15,73; 16,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 16,36</t>
+          <t>15,96; 16,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 16,3</t>
+          <t>15,92; 16,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 16,72</t>
+          <t>16,06; 16,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,69</t>
+          <t>16,26; 16,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,48</t>
+          <t>15,98; 16,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,69</t>
+          <t>16,24; 16,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 16,61</t>
+          <t>15,74; 16,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,28</t>
+          <t>15,99; 16,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 16,32</t>
+          <t>16,03; 16,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 16,58</t>
+          <t>16,07; 16,59</t>
         </is>
       </c>
     </row>
@@ -864,57 +864,57 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,04</t>
+          <t>16,72; 17,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,22</t>
+          <t>16,78; 17,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,67; 17,05</t>
+          <t>16,66; 17,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,11</t>
+          <t>16,57; 17,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,63</t>
+          <t>17,2; 17,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,83</t>
+          <t>17,19; 17,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 17,85</t>
+          <t>17,15; 17,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,35</t>
+          <t>16,56; 17,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,18</t>
+          <t>16,92; 17,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 17,34</t>
+          <t>16,98; 17,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,29</t>
+          <t>16,92; 17,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,35</t>
+          <t>17,0; 17,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,49</t>
+          <t>17,06; 17,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,31</t>
+          <t>16,86; 17,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,52</t>
+          <t>16,92; 17,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,76</t>
+          <t>17,98; 18,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,37; 19,14</t>
+          <t>18,39; 19,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,36</t>
+          <t>17,57; 18,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 18,95</t>
+          <t>17,95; 18,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 17,81</t>
+          <t>17,42; 17,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 18,02</t>
+          <t>17,59; 18,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,6</t>
+          <t>17,2; 17,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,91</t>
+          <t>17,38; 17,88</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1149,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,12</t>
+          <t>17,48; 18,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,57</t>
+          <t>17,01; 17,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,49</t>
+          <t>16,84; 17,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 20,08</t>
+          <t>18,96; 20,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,95; 20,16</t>
+          <t>18,89; 20,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 19,81</t>
+          <t>18,65; 19,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 19,59</t>
+          <t>18,39; 19,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,81; 18,3</t>
+          <t>17,82; 18,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 18,65</t>
+          <t>18,08; 18,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 18,38</t>
+          <t>17,78; 18,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,5; 18,12</t>
+          <t>17,49; 18,11</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 17,94</t>
+          <t>17,34; 17,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,56; 19,03</t>
+          <t>17,55; 19,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,36</t>
+          <t>16,75; 17,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 18,04</t>
+          <t>17,18; 18,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,2; 20,73</t>
+          <t>19,23; 20,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,83; 22,26</t>
+          <t>19,71; 22,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,37; 21,73</t>
+          <t>19,49; 21,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,38; 21,22</t>
+          <t>19,42; 21,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 18,7</t>
+          <t>17,97; 18,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 19,6</t>
+          <t>18,43; 19,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,7; 18,58</t>
+          <t>17,71; 18,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,07; 18,93</t>
+          <t>18,05; 18,9</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 18,59</t>
+          <t>17,74; 18,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,7; 19,22</t>
+          <t>17,72; 19,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,12</t>
+          <t>17,09; 18,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,86</t>
+          <t>17,06; 17,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,53; 22,89</t>
+          <t>19,57; 23,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,42; 26,31</t>
+          <t>21,44; 26,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,19</t>
+          <t>21,05; 25,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,76; 21,2</t>
+          <t>16,57; 21,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,21; 19,2</t>
+          <t>18,19; 19,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,83; 20,52</t>
+          <t>18,8; 20,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,27; 19,81</t>
+          <t>18,3; 19,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 18,4</t>
+          <t>16,95; 18,42</t>
         </is>
       </c>
     </row>
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,19</t>
+          <t>17,0; 17,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,5</t>
+          <t>17,22; 17,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,12</t>
+          <t>16,89; 17,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,32 +1584,32 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,96; 18,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,14</t>
+          <t>18,47; 19,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,98</t>
+          <t>18,32; 18,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,66</t>
+          <t>17,52; 18,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,54</t>
+          <t>17,34; 17,53</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,97</t>
+          <t>17,68; 17,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">

--- a/data/trans_media/Q31A-Edad-trans_media.xlsx
+++ b/data/trans_media/Q31A-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 16,14</t>
+          <t>15,73; 16,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,96; 16,36</t>
+          <t>15,96; 16,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,92; 16,3</t>
+          <t>15,92; 16,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 16,7</t>
+          <t>16,25; 16,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,46</t>
+          <t>15,97; 16,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 16,68</t>
+          <t>16,24; 16,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,99; 16,3</t>
+          <t>15,99; 16,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 16,32</t>
+          <t>16,02; 16,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 16,41</t>
+          <t>16,13; 16,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,05</t>
+          <t>16,74; 17,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,19</t>
+          <t>16,79; 17,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,04</t>
+          <t>16,67; 17,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,63</t>
+          <t>17,18; 17,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,84</t>
+          <t>17,2; 17,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,78</t>
+          <t>17,15; 17,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,19</t>
+          <t>16,91; 17,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,32</t>
+          <t>16,99; 17,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,27</t>
+          <t>16,92; 17,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,36</t>
+          <t>16,99; 17,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,46</t>
+          <t>17,07; 17,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,34</t>
+          <t>16,85; 17,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,98; 18,83</t>
+          <t>17,98; 18,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,39; 19,21</t>
+          <t>18,39; 19,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,46</t>
+          <t>17,57; 18,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,0</t>
+          <t>17,61; 18,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,64</t>
+          <t>17,18; 17,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,6</t>
+          <t>17,19; 17,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,09</t>
+          <t>17,51; 18,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,53</t>
+          <t>16,99; 17,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 20,11</t>
+          <t>18,96; 20,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,89; 20,17</t>
+          <t>18,93; 20,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,65; 19,83</t>
+          <t>18,63; 19,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,82; 18,32</t>
+          <t>17,79; 18,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 18,7</t>
+          <t>18,09; 18,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 18,34</t>
+          <t>17,75; 18,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,97</t>
+          <t>17,33; 17,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,55; 19,05</t>
+          <t>17,51; 18,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,43</t>
+          <t>16,75; 17,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,23; 20,83</t>
+          <t>19,16; 20,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,71; 22,4</t>
+          <t>19,84; 22,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 21,75</t>
+          <t>19,37; 21,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,97; 18,64</t>
+          <t>17,99; 18,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 19,7</t>
+          <t>18,44; 19,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,71; 18,62</t>
+          <t>17,71; 18,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 18,59</t>
+          <t>17,77; 18,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,72; 19,58</t>
+          <t>17,72; 19,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 18,09</t>
+          <t>17,1; 18,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,57; 23,13</t>
+          <t>19,5; 22,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,44; 26,44</t>
+          <t>21,58; 26,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,05; 25,88</t>
+          <t>20,95; 26,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,19; 19,13</t>
+          <t>18,21; 19,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,8; 20,53</t>
+          <t>18,83; 20,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,3; 19,8</t>
+          <t>18,29; 19,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,18</t>
+          <t>17,0; 17,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,52</t>
+          <t>17,21; 17,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,13</t>
+          <t>16,88; 17,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,36</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,47; 19,12</t>
+          <t>18,49; 19,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,32; 18,97</t>
+          <t>18,29; 18,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,53</t>
+          <t>17,34; 17,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,96</t>
+          <t>17,67; 17,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,73</t>
+          <t>17,46; 17,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
